--- a/docs/docs_apis.xlsx
+++ b/docs/docs_apis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Downloads\ch23105\entrega_proyecto_final\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Downloads\proyecto_final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6314AF6-5498-4B13-8AC6-DFCDCADF32BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ACA1AA-0499-4B9D-BA5C-2A235D17BD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{352B1C19-E3BF-409B-A3AD-26DCC277891D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{352B1C19-E3BF-409B-A3AD-26DCC277891D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>Sección</t>
   </si>
@@ -597,9 +597,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,45 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,7 +971,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -987,30 +987,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1031,8 +1031,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1045,61 +1045,57 @@
       <c r="F3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="32"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="32"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1107,7 +1103,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1128,7 +1124,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1145,7 +1141,7 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1168,24 +1164,24 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
@@ -1202,7 +1198,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1219,7 +1215,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1236,7 +1232,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1253,7 +1249,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1270,7 +1266,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
@@ -1289,7 +1285,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="22"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
@@ -1306,7 +1302,7 @@
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1325,7 +1321,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1342,7 +1338,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="10" t="s">
         <v>38</v>
       </c>

--- a/docs/docs_apis.xlsx
+++ b/docs/docs_apis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Downloads\proyecto_final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ACA1AA-0499-4B9D-BA5C-2A235D17BD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EB82F5-D73E-4B60-B660-D059427E161B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{352B1C19-E3BF-409B-A3AD-26DCC277891D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>Sección</t>
   </si>
@@ -129,9 +129,6 @@
  "stock"</t>
   </si>
   <si>
-    <t>El id puede venir en el body es opcional</t>
-  </si>
-  <si>
     <t>Carritos</t>
   </si>
   <si>
@@ -204,10 +201,6 @@
   <si>
     <t>Devuelve el id del carrito.
 La fecha/hora, el id y la estructra para contener los productos los asigna en el momento de creación del carrito.</t>
-  </si>
-  <si>
-    <t>Devuelve id de producto.
-El timestamp e id se asignan en el momento de la creación.</t>
   </si>
   <si>
     <t>/api/carritos/&lt;CARRITO_ID&gt;/productos/&lt;PRODUCTO_ID&gt;</t>
@@ -232,6 +225,18 @@
   <si>
     <t>"email" ",
 "password"</t>
+  </si>
+  <si>
+    <t>Devuelve id de producto.
+El timestamp e id se asignan en el momento de la creación.
+Solo para usuario admin.</t>
+  </si>
+  <si>
+    <t>El id puede venir en el body es opcional.
+Solo para usuario admin.</t>
+  </si>
+  <si>
+    <t>Solo para usuario admin.</t>
   </si>
 </sst>
 </file>
@@ -971,7 +976,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1024,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1043,10 +1048,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -1069,7 +1074,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1120,7 +1125,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1129,7 +1134,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>21</v>
@@ -1138,14 +1143,16 @@
         <v>24</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -1154,19 +1161,19 @@
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
       <c r="B10" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>6</v>
@@ -1175,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="20"/>
@@ -1183,16 +1190,16 @@
     <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="8"/>
@@ -1200,7 +1207,7 @@
     <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>19</v>
@@ -1209,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="8"/>
@@ -1217,7 +1224,7 @@
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
@@ -1226,7 +1233,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="8"/>
@@ -1234,7 +1241,7 @@
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
@@ -1243,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="8"/>
@@ -1251,7 +1258,7 @@
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>19</v>
@@ -1260,7 +1267,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="8"/>
@@ -1268,7 +1275,7 @@
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -1277,36 +1284,36 @@
         <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35"/>
       <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="D17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>19</v>
@@ -1315,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
@@ -1323,7 +1330,7 @@
     <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>19</v>
@@ -1332,7 +1339,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="8"/>
@@ -1340,7 +1347,7 @@
     <row r="20" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="36"/>
       <c r="B20" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>19</v>
@@ -1349,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
